--- a/pendulum/random_mem_grav/random_mem_raw_data.xlsx
+++ b/pendulum/random_mem_grav/random_mem_raw_data.xlsx
@@ -1,35 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/Work Info/Research Assistant/deap_experiments/pendulum/random_mem_grav/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F738C23A-B3D8-4540-AE24-E8D2027A4CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="17" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="18" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="13" sheetId="3" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>ind</t>
+  </si>
+  <si>
+    <t>fitness</t>
+  </si>
+  <si>
+    <t>memProtectedDiv(cos(cos(0)), sub(sin(sin(sin(sin(read(a0, a2))))), write(a0, abs(0), a2)))</t>
+  </si>
+  <si>
+    <t>memProtectedDiv(memProtectedDiv(a2, conditional(sin(a1), 0)), protectedLog(cos(write(a0, a2, sin(sin(add(read(a0, 0), a2)))))))</t>
+  </si>
+  <si>
+    <t>memProtectedDiv(add(add(a2, a2), read(a0, a1)), conditional(sin(sin(sin(sin(read(a0, cos(protectedLog(memProtectedDiv(a1, a2)))))))), write(a0, limit(sub(a1, a1), protectedLog(conditional(sin(sin(read(a0, 0))), write(a0, sin(add(a2, a2)), sub(protectedLog(read(a0, 0)), write(a0, 0, cos(conditional(a1, a2))))))), a1), a2)))</t>
+  </si>
+  <si>
+    <t>sub(sub(sub(read(a0, 0), memProtectedDiv(a2, abs(read(a0, sub(cos(protectedLog(add(0, a1))), a1))))), write(a0, sin(read(a0, memProtectedDiv(a2, a1))), a2)), a2)</t>
+  </si>
+  <si>
+    <t>memProtectedDiv(sub(write(a0, a1, sub(sub(sub(read(a0, 0), a2), a2), abs(protectedLog(0)))), write(a0, conditional(cos(a1), a1), add(write(a0, a1, add(write(a0, a1, add(a2, add(0, a2))), add(limit(a2, 0, write(a0, a1, 0)), a2))), a2))), abs(a2))</t>
+  </si>
+  <si>
+    <t>sub(sub(0, memProtectedDiv(conditional(a2, read(a0, a2)), write(a0, 0, sin(a2)))), memProtectedDiv(conditional(read(a0, 0), 0), a2))</t>
+  </si>
+  <si>
+    <t>sub(sub(sub(sub(read(a0, add(add(memProtectedDiv(0, 0), a1), a1)), write(a0, limit(0, sub(add(0, a2), protectedLog(a1)), abs(a2)), add(add(memProtectedDiv(protectedLog(abs(a2)), sin(a2)), memProtectedDiv(a1, conditional(a2, a1))), a2))), sin(read(a0, add(read(a0, a2), a2)))), a2), add(a2, a2))</t>
+  </si>
+  <si>
+    <t>sub(read(a0, a2), memProtectedDiv(abs(memProtectedDiv(memProtectedDiv(write(a0, protectedLog(0), add(a2, a2)), a1), a1)), a2))</t>
+  </si>
+  <si>
+    <t>sub(read(a0, a2), add(a2, add(add(a2, write(a0, sin(a1), sub(a1, memProtectedDiv(conditional(memProtectedDiv(a1, a2), a2), a2)))), add(a2, cos(read(a0, 0))))))</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,80 +89,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,235 +403,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ind</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>fitness</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>sub(sub(read(a0, protectedLog(0)), add(a2, a2)), write(a0, read(a0, abs(read(a0, 0))), memProtectedDiv(a2, protectedLog(a1))))</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>-19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>sub(sub(read(a0, read(a0, 0)), write(a0, memProtectedDiv(a1, limit(abs(a1), sin(conditional(a1, add(a2, a2))), read(a0, sub(a2, limit(a1, a2, limit(0, 0, a1)))))), add(add(add(write(a0, 0, add(limit(a1, a2, 0), write(a0, 0, a2))), sin(limit(a1, protectedLog(a1), abs(0)))), memProtectedDiv(a2, protectedLog(a1))), sin(0)))), add(a2, a2))</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>sub(sub(read(a0, a2), memProtectedDiv(a2, conditional(read(a0, memProtectedDiv(cos(memProtectedDiv(a2, sub(sub(a2, cos(a2)), a2))), sin(0))), write(a0, sin(a1), protectedLog(0))))), write(a0, a2, a2))</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>sub(read(a0, a2), add(write(a0, 0, sub(a2, sub(memProtectedDiv(limit(0, a1, limit(sin(abs(cos(write(a0, a2, a1)))), cos(protectedLog(0)), add(a2, sub(a2, a1)))), a2), sub(a2, a2)))), a2))</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>sub(write(a0, 0, limit(a2, sin(read(a0, memProtectedDiv(a2, a1))), memProtectedDiv(a1, conditional(a1, limit(a1, memProtectedDiv(a2, read(a0, limit(a1, a2, add(a1, abs(protectedLog(abs(sub(0, add(a2, 0))))))))), a1))))), a2)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-41</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>sub(sub(sub(read(a0, a2), a2), write(a0, add(write(a0, 0, cos(a1)), abs(add(a1, protectedLog(protectedLog(a2))))), memProtectedDiv(a1, conditional(a2, a1)))), a2)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>-19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ind</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>fitness</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>memProtectedDiv(cos(cos(0)), sub(sin(sin(sin(sin(read(a0, a2))))), write(a0, abs(0), a2)))</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>-165</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>memProtectedDiv(memProtectedDiv(a2, conditional(sin(a1), 0)), protectedLog(cos(write(a0, a2, sin(sin(add(read(a0, 0), a2)))))))</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>-382</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>memProtectedDiv(add(add(a2, a2), read(a0, a1)), conditional(sin(sin(sin(sin(read(a0, cos(protectedLog(memProtectedDiv(a1, a2)))))))), write(a0, limit(sub(a1, a1), protectedLog(conditional(sin(sin(read(a0, 0))), write(a0, sin(add(a2, a2)), sub(protectedLog(read(a0, 0)), write(a0, 0, cos(conditional(a1, a2))))))), a1), a2)))</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>-150</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>sub(sub(sub(read(a0, 0), memProtectedDiv(a2, abs(read(a0, sub(cos(protectedLog(add(0, a1))), a1))))), write(a0, sin(read(a0, memProtectedDiv(a2, a1))), a2)), a2)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>-303</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>memProtectedDiv(sub(write(a0, a1, sub(sub(sub(read(a0, 0), a2), a2), abs(protectedLog(0)))), write(a0, conditional(cos(a1), a1), add(write(a0, a1, add(write(a0, a1, add(a2, add(0, a2))), add(limit(a2, 0, write(a0, a1, 0)), a2))), a2))), abs(a2))</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>-181</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>sub(sub(0, memProtectedDiv(conditional(a2, read(a0, a2)), write(a0, 0, sin(a2)))), memProtectedDiv(conditional(read(a0, 0), 0), a2))</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>-76</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>sub(sub(sub(sub(read(a0, add(add(memProtectedDiv(0, 0), a1), a1)), write(a0, limit(0, sub(add(0, a2), protectedLog(a1)), abs(a2)), add(add(memProtectedDiv(protectedLog(abs(a2)), sin(a2)), memProtectedDiv(a1, conditional(a2, a1))), a2))), sin(read(a0, add(read(a0, a2), a2)))), a2), add(a2, a2))</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
         <v>-115</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>sub(read(a0, a2), memProtectedDiv(abs(memProtectedDiv(memProtectedDiv(write(a0, protectedLog(0), add(a2, a2)), a1), a1)), a2))</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>-532</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>sub(read(a0, a2), add(a2, add(add(a2, write(a0, sin(a1), sub(a1, memProtectedDiv(conditional(memProtectedDiv(a1, a2), a2), a2)))), add(a2, cos(read(a0, 0))))))</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
         <v>-113</v>
       </c>
     </row>
